--- a/python/WebWechat/learning/Error.xlsx
+++ b/python/WebWechat/learning/Error.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,26 @@
   </si>
   <si>
     <t>UnboundLocalError: local variable 'XXX' referenced before assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（）位置缺少一个必要参数XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeError: searchAnswer() missing 1 required positional argument: 'XXX'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for循环中的remove操作的奇怪现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.sina.com.cn/s/blog_678b56660102w6tp.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/python-dd/p/9152687.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +83,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,14 +111,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,20 +402,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,17 +426,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>